--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.4.5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.4.5_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3020676661279283</v>
+        <v>0.3288533804136425</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3020676661279283, 'ngram_match_score': 0.133620121835251, 'weighted_ngram_match_score': 0.1726358906618101, 'syntax_match_score': 0.532967032967033, 'dataflow_match_score': 0.36904761904761907}</t>
+          <t>{'codebleu': 0.32885338041364254, 'ngram_match_score': 0.133620121835251, 'weighted_ngram_match_score': 0.1726358906618101, 'syntax_match_score': 0.532967032967033, 'dataflow_match_score': 0.47619047619047616}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
